--- a/fuction_ensemble_1/redes-ensemble-s/Teste03/content/results/metrics_6_5.xlsx
+++ b/fuction_ensemble_1/redes-ensemble-s/Teste03/content/results/metrics_6_5.xlsx
@@ -518,1376 +518,1376 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_2</t>
+          <t>model_6_5_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9996522143560749</v>
+        <v>0.5692387035740197</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7171114179185605</v>
+        <v>0.2355707868591003</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9985142950937516</v>
+        <v>-2.163366163360928</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9997146423847981</v>
+        <v>-16.99369045119845</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9990261338842965</v>
+        <v>-0.7920686400455674</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0002064605817915382</v>
+        <v>0.2557185134775685</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1679348824739952</v>
+        <v>0.4537982025430372</v>
       </c>
       <c r="I2" t="n">
-        <v>0.001129771548366257</v>
+        <v>0.5733796306930626</v>
       </c>
       <c r="J2" t="n">
-        <v>0.000160607086797549</v>
+        <v>0.152569633957454</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0006451893175819028</v>
+        <v>0.3629746323252583</v>
       </c>
       <c r="L2" t="n">
-        <v>0.004152929963657378</v>
+        <v>0.2823828768330753</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01436873626285688</v>
+        <v>0.5056861808251918</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000203581840347</v>
+        <v>0.06015717143422494</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01498044311295122</v>
+        <v>0.5272142884576241</v>
       </c>
       <c r="P2" t="n">
-        <v>146.970802101985</v>
+        <v>28.72735599237364</v>
       </c>
       <c r="Q2" t="n">
-        <v>226.1977307184181</v>
+        <v>44.57274171566024</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_12</t>
+          <t>model_6_5_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9996522078040857</v>
+        <v>0.5692387035740197</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7171113838424945</v>
+        <v>0.2355707868591003</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9985142706773156</v>
+        <v>-2.163366163360928</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9997146321814349</v>
+        <v>-16.99369045119845</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9990261155374591</v>
+        <v>-0.7920686400455674</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0002064644713353352</v>
+        <v>0.2557185134775685</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1679349027030201</v>
+        <v>0.4537982025430372</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001129790115306845</v>
+        <v>0.5733796306930626</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0001606128295300284</v>
+        <v>0.152569633957454</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0006452014724184367</v>
+        <v>0.3629746323252583</v>
       </c>
       <c r="L3" t="n">
-        <v>0.004152944209694312</v>
+        <v>0.2823828768330753</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01436887160967538</v>
+        <v>0.5056861808251918</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000203585675657</v>
+        <v>0.06015717143422494</v>
       </c>
       <c r="O3" t="n">
-        <v>0.01498058422176399</v>
+        <v>0.5272142884576241</v>
       </c>
       <c r="P3" t="n">
-        <v>146.9707644240213</v>
+        <v>28.72735599237364</v>
       </c>
       <c r="Q3" t="n">
-        <v>226.1976930404543</v>
+        <v>44.57274171566024</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_22</t>
+          <t>model_6_5_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9996522078040857</v>
+        <v>0.5692387035740197</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7171113838424945</v>
+        <v>0.2355707868591003</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9985142706773156</v>
+        <v>-2.163366163360928</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9997146321814349</v>
+        <v>-16.99369045119845</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9990261155374591</v>
+        <v>-0.7920686400455674</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0002064644713353352</v>
+        <v>0.2557185134775685</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1679349027030201</v>
+        <v>0.4537982025430372</v>
       </c>
       <c r="I4" t="n">
-        <v>0.001129790115306845</v>
+        <v>0.5733796306930626</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0001606128295300284</v>
+        <v>0.152569633957454</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0006452014724184367</v>
+        <v>0.3629746323252583</v>
       </c>
       <c r="L4" t="n">
-        <v>0.004152944209694312</v>
+        <v>0.2823828768330753</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01436887160967538</v>
+        <v>0.5056861808251918</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000203585675657</v>
+        <v>0.06015717143422494</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01498058422176399</v>
+        <v>0.5272142884576241</v>
       </c>
       <c r="P4" t="n">
-        <v>146.9707644240213</v>
+        <v>28.72735599237364</v>
       </c>
       <c r="Q4" t="n">
-        <v>226.1976930404543</v>
+        <v>44.57274171566024</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_21</t>
+          <t>model_6_5_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9996522078040857</v>
+        <v>0.5692387035740197</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7171113838424945</v>
+        <v>0.2355707868591003</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9985142706773156</v>
+        <v>-2.163366163360928</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9997146321814349</v>
+        <v>-16.99369045119845</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9990261155374591</v>
+        <v>-0.7920686400455674</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0002064644713353352</v>
+        <v>0.2557185134775685</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1679349027030201</v>
+        <v>0.4537982025430372</v>
       </c>
       <c r="I5" t="n">
-        <v>0.001129790115306845</v>
+        <v>0.5733796306930626</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0001606128295300284</v>
+        <v>0.152569633957454</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0006452014724184367</v>
+        <v>0.3629746323252583</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004152944209694312</v>
+        <v>0.2823828768330753</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01436887160967538</v>
+        <v>0.5056861808251918</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000203585675657</v>
+        <v>0.06015717143422494</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01498058422176399</v>
+        <v>0.5272142884576241</v>
       </c>
       <c r="P5" t="n">
-        <v>146.9707644240213</v>
+        <v>28.72735599237364</v>
       </c>
       <c r="Q5" t="n">
-        <v>226.1976930404543</v>
+        <v>44.57274171566024</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_20</t>
+          <t>model_6_5_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9996522078040857</v>
+        <v>0.5692387035740197</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7171113838424945</v>
+        <v>0.2355707868591003</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9985142706773156</v>
+        <v>-2.163366163360928</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9997146321814349</v>
+        <v>-16.99369045119845</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9990261155374591</v>
+        <v>-0.7920686400455674</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0002064644713353352</v>
+        <v>0.2557185134775685</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1679349027030201</v>
+        <v>0.4537982025430372</v>
       </c>
       <c r="I6" t="n">
-        <v>0.001129790115306845</v>
+        <v>0.5733796306930626</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0001606128295300284</v>
+        <v>0.152569633957454</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0006452014724184367</v>
+        <v>0.3629746323252583</v>
       </c>
       <c r="L6" t="n">
-        <v>0.004152944209694312</v>
+        <v>0.2823828768330753</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01436887160967538</v>
+        <v>0.5056861808251918</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000203585675657</v>
+        <v>0.06015717143422494</v>
       </c>
       <c r="O6" t="n">
-        <v>0.01498058422176399</v>
+        <v>0.5272142884576241</v>
       </c>
       <c r="P6" t="n">
-        <v>146.9707644240213</v>
+        <v>28.72735599237364</v>
       </c>
       <c r="Q6" t="n">
-        <v>226.1976930404543</v>
+        <v>44.57274171566024</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_19</t>
+          <t>model_6_5_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9996522078040857</v>
+        <v>0.5692387035740197</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7171113838424945</v>
+        <v>0.2355707868591003</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9985142706773156</v>
+        <v>-2.163366163360928</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9997146321814349</v>
+        <v>-16.99369045119845</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9990261155374591</v>
+        <v>-0.7920686400455674</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0002064644713353352</v>
+        <v>0.2557185134775685</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1679349027030201</v>
+        <v>0.4537982025430372</v>
       </c>
       <c r="I7" t="n">
-        <v>0.001129790115306845</v>
+        <v>0.5733796306930626</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0001606128295300284</v>
+        <v>0.152569633957454</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0006452014724184367</v>
+        <v>0.3629746323252583</v>
       </c>
       <c r="L7" t="n">
-        <v>0.004152944209694312</v>
+        <v>0.2823828768330753</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01436887160967538</v>
+        <v>0.5056861808251918</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000203585675657</v>
+        <v>0.06015717143422494</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01498058422176399</v>
+        <v>0.5272142884576241</v>
       </c>
       <c r="P7" t="n">
-        <v>146.9707644240213</v>
+        <v>28.72735599237364</v>
       </c>
       <c r="Q7" t="n">
-        <v>226.1976930404543</v>
+        <v>44.57274171566024</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_18</t>
+          <t>model_6_5_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9996522078040857</v>
+        <v>0.5692387035740197</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7171113838424945</v>
+        <v>0.2355707868591003</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9985142706773156</v>
+        <v>-2.163366163360928</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9997146321814349</v>
+        <v>-16.99369045119845</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9990261155374591</v>
+        <v>-0.7920686400455674</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0002064644713353352</v>
+        <v>0.2557185134775685</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1679349027030201</v>
+        <v>0.4537982025430372</v>
       </c>
       <c r="I8" t="n">
-        <v>0.001129790115306845</v>
+        <v>0.5733796306930626</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0001606128295300284</v>
+        <v>0.152569633957454</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0006452014724184367</v>
+        <v>0.3629746323252583</v>
       </c>
       <c r="L8" t="n">
-        <v>0.004152944209694312</v>
+        <v>0.2823828768330753</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01436887160967538</v>
+        <v>0.5056861808251918</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000203585675657</v>
+        <v>0.06015717143422494</v>
       </c>
       <c r="O8" t="n">
-        <v>0.01498058422176399</v>
+        <v>0.5272142884576241</v>
       </c>
       <c r="P8" t="n">
-        <v>146.9707644240213</v>
+        <v>28.72735599237364</v>
       </c>
       <c r="Q8" t="n">
-        <v>226.1976930404543</v>
+        <v>44.57274171566024</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_17</t>
+          <t>model_6_5_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9996522078040857</v>
+        <v>0.5692387035740197</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7171113838424945</v>
+        <v>0.2355707868591003</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9985142706773156</v>
+        <v>-2.163366163360928</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9997146321814349</v>
+        <v>-16.99369045119845</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9990261155374591</v>
+        <v>-0.7920686400455674</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0002064644713353352</v>
+        <v>0.2557185134775685</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1679349027030201</v>
+        <v>0.4537982025430372</v>
       </c>
       <c r="I9" t="n">
-        <v>0.001129790115306845</v>
+        <v>0.5733796306930626</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0001606128295300284</v>
+        <v>0.152569633957454</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0006452014724184367</v>
+        <v>0.3629746323252583</v>
       </c>
       <c r="L9" t="n">
-        <v>0.004152944209694312</v>
+        <v>0.2823828768330753</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01436887160967538</v>
+        <v>0.5056861808251918</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000203585675657</v>
+        <v>0.06015717143422494</v>
       </c>
       <c r="O9" t="n">
-        <v>0.01498058422176399</v>
+        <v>0.5272142884576241</v>
       </c>
       <c r="P9" t="n">
-        <v>146.9707644240213</v>
+        <v>28.72735599237364</v>
       </c>
       <c r="Q9" t="n">
-        <v>226.1976930404543</v>
+        <v>44.57274171566024</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_16</t>
+          <t>model_6_5_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9996522078040857</v>
+        <v>0.5692387035740197</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7171113838424945</v>
+        <v>0.2355707868591003</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9985142706773156</v>
+        <v>-2.163366163360928</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9997146321814349</v>
+        <v>-16.99369045119845</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9990261155374591</v>
+        <v>-0.7920686400455674</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0002064644713353352</v>
+        <v>0.2557185134775685</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1679349027030201</v>
+        <v>0.4537982025430372</v>
       </c>
       <c r="I10" t="n">
-        <v>0.001129790115306845</v>
+        <v>0.5733796306930626</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0001606128295300284</v>
+        <v>0.152569633957454</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0006452014724184367</v>
+        <v>0.3629746323252583</v>
       </c>
       <c r="L10" t="n">
-        <v>0.004152944209694312</v>
+        <v>0.2823828768330753</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01436887160967538</v>
+        <v>0.5056861808251918</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000203585675657</v>
+        <v>0.06015717143422494</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01498058422176399</v>
+        <v>0.5272142884576241</v>
       </c>
       <c r="P10" t="n">
-        <v>146.9707644240213</v>
+        <v>28.72735599237364</v>
       </c>
       <c r="Q10" t="n">
-        <v>226.1976930404543</v>
+        <v>44.57274171566024</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_15</t>
+          <t>model_6_5_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9996522078040857</v>
+        <v>0.5692387035740197</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7171113838424945</v>
+        <v>0.2355707868591003</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9985142706773156</v>
+        <v>-2.163366163360928</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9997146321814349</v>
+        <v>-16.99369045119845</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9990261155374591</v>
+        <v>-0.7920686400455674</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0002064644713353352</v>
+        <v>0.2557185134775685</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1679349027030201</v>
+        <v>0.4537982025430372</v>
       </c>
       <c r="I11" t="n">
-        <v>0.001129790115306845</v>
+        <v>0.5733796306930626</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0001606128295300284</v>
+        <v>0.152569633957454</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0006452014724184367</v>
+        <v>0.3629746323252583</v>
       </c>
       <c r="L11" t="n">
-        <v>0.004152944209694312</v>
+        <v>0.2823828768330753</v>
       </c>
       <c r="M11" t="n">
-        <v>0.01436887160967538</v>
+        <v>0.5056861808251918</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000203585675657</v>
+        <v>0.06015717143422494</v>
       </c>
       <c r="O11" t="n">
-        <v>0.01498058422176399</v>
+        <v>0.5272142884576241</v>
       </c>
       <c r="P11" t="n">
-        <v>146.9707644240213</v>
+        <v>28.72735599237364</v>
       </c>
       <c r="Q11" t="n">
-        <v>226.1976930404543</v>
+        <v>44.57274171566024</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_14</t>
+          <t>model_6_5_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9996522078040857</v>
+        <v>0.5692387035740197</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7171113838424945</v>
+        <v>0.2355707868591003</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9985142706773156</v>
+        <v>-2.163366163360928</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9997146321814349</v>
+        <v>-16.99369045119845</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9990261155374591</v>
+        <v>-0.7920686400455674</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0002064644713353352</v>
+        <v>0.2557185134775685</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1679349027030201</v>
+        <v>0.4537982025430372</v>
       </c>
       <c r="I12" t="n">
-        <v>0.001129790115306845</v>
+        <v>0.5733796306930626</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0001606128295300284</v>
+        <v>0.152569633957454</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0006452014724184367</v>
+        <v>0.3629746323252583</v>
       </c>
       <c r="L12" t="n">
-        <v>0.004152944209694312</v>
+        <v>0.2823828768330753</v>
       </c>
       <c r="M12" t="n">
-        <v>0.01436887160967538</v>
+        <v>0.5056861808251918</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000203585675657</v>
+        <v>0.06015717143422494</v>
       </c>
       <c r="O12" t="n">
-        <v>0.01498058422176399</v>
+        <v>0.5272142884576241</v>
       </c>
       <c r="P12" t="n">
-        <v>146.9707644240213</v>
+        <v>28.72735599237364</v>
       </c>
       <c r="Q12" t="n">
-        <v>226.1976930404543</v>
+        <v>44.57274171566024</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_13</t>
+          <t>model_6_5_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9996522078040857</v>
+        <v>0.5692387035740197</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7171113838424945</v>
+        <v>0.2355707868591003</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9985142706773156</v>
+        <v>-2.163366163360928</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9997146321814349</v>
+        <v>-16.99369045119845</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9990261155374591</v>
+        <v>-0.7920686400455674</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0002064644713353352</v>
+        <v>0.2557185134775685</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1679349027030201</v>
+        <v>0.4537982025430372</v>
       </c>
       <c r="I13" t="n">
-        <v>0.001129790115306845</v>
+        <v>0.5733796306930626</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0001606128295300284</v>
+        <v>0.152569633957454</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0006452014724184367</v>
+        <v>0.3629746323252583</v>
       </c>
       <c r="L13" t="n">
-        <v>0.004152944209694312</v>
+        <v>0.2823828768330753</v>
       </c>
       <c r="M13" t="n">
-        <v>0.01436887160967538</v>
+        <v>0.5056861808251918</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000203585675657</v>
+        <v>0.06015717143422494</v>
       </c>
       <c r="O13" t="n">
-        <v>0.01498058422176399</v>
+        <v>0.5272142884576241</v>
       </c>
       <c r="P13" t="n">
-        <v>146.9707644240213</v>
+        <v>28.72735599237364</v>
       </c>
       <c r="Q13" t="n">
-        <v>226.1976930404543</v>
+        <v>44.57274171566024</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_24</t>
+          <t>model_6_5_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9996522078040857</v>
+        <v>0.5692387035740197</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7171113838424945</v>
+        <v>0.2355707868591003</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9985142706773156</v>
+        <v>-2.163366163360928</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9997146321814349</v>
+        <v>-16.99369045119845</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9990261155374591</v>
+        <v>-0.7920686400455674</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0002064644713353352</v>
+        <v>0.2557185134775685</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1679349027030201</v>
+        <v>0.4537982025430372</v>
       </c>
       <c r="I14" t="n">
-        <v>0.001129790115306845</v>
+        <v>0.5733796306930626</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0001606128295300284</v>
+        <v>0.152569633957454</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0006452014724184367</v>
+        <v>0.3629746323252583</v>
       </c>
       <c r="L14" t="n">
-        <v>0.004152944209694312</v>
+        <v>0.2823828768330753</v>
       </c>
       <c r="M14" t="n">
-        <v>0.01436887160967538</v>
+        <v>0.5056861808251918</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000203585675657</v>
+        <v>0.06015717143422494</v>
       </c>
       <c r="O14" t="n">
-        <v>0.01498058422176399</v>
+        <v>0.5272142884576241</v>
       </c>
       <c r="P14" t="n">
-        <v>146.9707644240213</v>
+        <v>28.72735599237364</v>
       </c>
       <c r="Q14" t="n">
-        <v>226.1976930404543</v>
+        <v>44.57274171566024</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_11</t>
+          <t>model_6_5_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9996522078040857</v>
+        <v>0.5692387035740197</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7171113838424945</v>
+        <v>0.2355707868591003</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9985142706773156</v>
+        <v>-2.163366163360928</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9997146321814349</v>
+        <v>-16.99369045119845</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9990261155374591</v>
+        <v>-0.7920686400455674</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0002064644713353352</v>
+        <v>0.2557185134775685</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1679349027030201</v>
+        <v>0.4537982025430372</v>
       </c>
       <c r="I15" t="n">
-        <v>0.001129790115306845</v>
+        <v>0.5733796306930626</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0001606128295300284</v>
+        <v>0.152569633957454</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0006452014724184367</v>
+        <v>0.3629746323252583</v>
       </c>
       <c r="L15" t="n">
-        <v>0.004152944209694312</v>
+        <v>0.2823828768330753</v>
       </c>
       <c r="M15" t="n">
-        <v>0.01436887160967538</v>
+        <v>0.5056861808251918</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000203585675657</v>
+        <v>0.06015717143422494</v>
       </c>
       <c r="O15" t="n">
-        <v>0.01498058422176399</v>
+        <v>0.5272142884576241</v>
       </c>
       <c r="P15" t="n">
-        <v>146.9707644240213</v>
+        <v>28.72735599237364</v>
       </c>
       <c r="Q15" t="n">
-        <v>226.1976930404543</v>
+        <v>44.57274171566024</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_10</t>
+          <t>model_6_5_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9996522078040857</v>
+        <v>0.5692387035740197</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7171113838424945</v>
+        <v>0.2355707868591003</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9985142706773156</v>
+        <v>-2.163366163360928</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9997146321814349</v>
+        <v>-16.99369045119845</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9990261155374591</v>
+        <v>-0.7920686400455674</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0002064644713353352</v>
+        <v>0.2557185134775685</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1679349027030201</v>
+        <v>0.4537982025430372</v>
       </c>
       <c r="I16" t="n">
-        <v>0.001129790115306845</v>
+        <v>0.5733796306930626</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0001606128295300284</v>
+        <v>0.152569633957454</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0006452014724184367</v>
+        <v>0.3629746323252583</v>
       </c>
       <c r="L16" t="n">
-        <v>0.004152944209694312</v>
+        <v>0.2823828768330753</v>
       </c>
       <c r="M16" t="n">
-        <v>0.01436887160967538</v>
+        <v>0.5056861808251918</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000203585675657</v>
+        <v>0.06015717143422494</v>
       </c>
       <c r="O16" t="n">
-        <v>0.01498058422176399</v>
+        <v>0.5272142884576241</v>
       </c>
       <c r="P16" t="n">
-        <v>146.9707644240213</v>
+        <v>28.72735599237364</v>
       </c>
       <c r="Q16" t="n">
-        <v>226.1976930404543</v>
+        <v>44.57274171566024</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_9</t>
+          <t>model_6_5_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9996522078040857</v>
+        <v>0.5692387035740197</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7171113838424945</v>
+        <v>0.2355707868591003</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9985142706773156</v>
+        <v>-2.163366163360928</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9997146321814349</v>
+        <v>-16.99369045119845</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9990261155374591</v>
+        <v>-0.7920686400455674</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0002064644713353352</v>
+        <v>0.2557185134775685</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1679349027030201</v>
+        <v>0.4537982025430372</v>
       </c>
       <c r="I17" t="n">
-        <v>0.001129790115306845</v>
+        <v>0.5733796306930626</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0001606128295300284</v>
+        <v>0.152569633957454</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0006452014724184367</v>
+        <v>0.3629746323252583</v>
       </c>
       <c r="L17" t="n">
-        <v>0.004152944209694312</v>
+        <v>0.2823828768330753</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01436887160967538</v>
+        <v>0.5056861808251918</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000203585675657</v>
+        <v>0.06015717143422494</v>
       </c>
       <c r="O17" t="n">
-        <v>0.01498058422176399</v>
+        <v>0.5272142884576241</v>
       </c>
       <c r="P17" t="n">
-        <v>146.9707644240213</v>
+        <v>28.72735599237364</v>
       </c>
       <c r="Q17" t="n">
-        <v>226.1976930404543</v>
+        <v>44.57274171566024</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_8</t>
+          <t>model_6_5_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9996522078040857</v>
+        <v>0.5692387035740197</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7171113838424945</v>
+        <v>0.2355707868591003</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9985142706773156</v>
+        <v>-2.163366163360928</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9997146321814349</v>
+        <v>-16.99369045119845</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9990261155374591</v>
+        <v>-0.7920686400455674</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0002064644713353352</v>
+        <v>0.2557185134775685</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1679349027030201</v>
+        <v>0.4537982025430372</v>
       </c>
       <c r="I18" t="n">
-        <v>0.001129790115306845</v>
+        <v>0.5733796306930626</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0001606128295300284</v>
+        <v>0.152569633957454</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0006452014724184367</v>
+        <v>0.3629746323252583</v>
       </c>
       <c r="L18" t="n">
-        <v>0.004152944209694312</v>
+        <v>0.2823828768330753</v>
       </c>
       <c r="M18" t="n">
-        <v>0.01436887160967538</v>
+        <v>0.5056861808251918</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000203585675657</v>
+        <v>0.06015717143422494</v>
       </c>
       <c r="O18" t="n">
-        <v>0.01498058422176399</v>
+        <v>0.5272142884576241</v>
       </c>
       <c r="P18" t="n">
-        <v>146.9707644240213</v>
+        <v>28.72735599237364</v>
       </c>
       <c r="Q18" t="n">
-        <v>226.1976930404543</v>
+        <v>44.57274171566024</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_7</t>
+          <t>model_6_5_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9996522078040857</v>
+        <v>0.5692387035740197</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7171113838424945</v>
+        <v>0.2355707868591003</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9985142706773156</v>
+        <v>-2.163366163360928</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9997146321814349</v>
+        <v>-16.99369045119845</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9990261155374591</v>
+        <v>-0.7920686400455674</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0002064644713353352</v>
+        <v>0.2557185134775685</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1679349027030201</v>
+        <v>0.4537982025430372</v>
       </c>
       <c r="I19" t="n">
-        <v>0.001129790115306845</v>
+        <v>0.5733796306930626</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0001606128295300284</v>
+        <v>0.152569633957454</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0006452014724184367</v>
+        <v>0.3629746323252583</v>
       </c>
       <c r="L19" t="n">
-        <v>0.004152944209694312</v>
+        <v>0.2823828768330753</v>
       </c>
       <c r="M19" t="n">
-        <v>0.01436887160967538</v>
+        <v>0.5056861808251918</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000203585675657</v>
+        <v>0.06015717143422494</v>
       </c>
       <c r="O19" t="n">
-        <v>0.01498058422176399</v>
+        <v>0.5272142884576241</v>
       </c>
       <c r="P19" t="n">
-        <v>146.9707644240213</v>
+        <v>28.72735599237364</v>
       </c>
       <c r="Q19" t="n">
-        <v>226.1976930404543</v>
+        <v>44.57274171566024</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_6</t>
+          <t>model_6_5_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9996522078040857</v>
+        <v>0.5692387035740197</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7171113838424945</v>
+        <v>0.2355707868591003</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9985142706773156</v>
+        <v>-2.163366163360928</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9997146321814349</v>
+        <v>-16.99369045119845</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9990261155374591</v>
+        <v>-0.7920686400455674</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0002064644713353352</v>
+        <v>0.2557185134775685</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1679349027030201</v>
+        <v>0.4537982025430372</v>
       </c>
       <c r="I20" t="n">
-        <v>0.001129790115306845</v>
+        <v>0.5733796306930626</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0001606128295300284</v>
+        <v>0.152569633957454</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0006452014724184367</v>
+        <v>0.3629746323252583</v>
       </c>
       <c r="L20" t="n">
-        <v>0.004152944209694312</v>
+        <v>0.2823828768330753</v>
       </c>
       <c r="M20" t="n">
-        <v>0.01436887160967538</v>
+        <v>0.5056861808251918</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000203585675657</v>
+        <v>0.06015717143422494</v>
       </c>
       <c r="O20" t="n">
-        <v>0.01498058422176399</v>
+        <v>0.5272142884576241</v>
       </c>
       <c r="P20" t="n">
-        <v>146.9707644240213</v>
+        <v>28.72735599237364</v>
       </c>
       <c r="Q20" t="n">
-        <v>226.1976930404543</v>
+        <v>44.57274171566024</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_5</t>
+          <t>model_6_5_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9996522078040857</v>
+        <v>0.5692387035740197</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7171113838424945</v>
+        <v>0.2355707868591003</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9985142706773156</v>
+        <v>-2.163366163360928</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9997146321814349</v>
+        <v>-16.99369045119845</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9990261155374591</v>
+        <v>-0.7920686400455674</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0002064644713353352</v>
+        <v>0.2557185134775685</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1679349027030201</v>
+        <v>0.4537982025430372</v>
       </c>
       <c r="I21" t="n">
-        <v>0.001129790115306845</v>
+        <v>0.5733796306930626</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0001606128295300284</v>
+        <v>0.152569633957454</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0006452014724184367</v>
+        <v>0.3629746323252583</v>
       </c>
       <c r="L21" t="n">
-        <v>0.004152944209694312</v>
+        <v>0.2823828768330753</v>
       </c>
       <c r="M21" t="n">
-        <v>0.01436887160967538</v>
+        <v>0.5056861808251918</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000203585675657</v>
+        <v>0.06015717143422494</v>
       </c>
       <c r="O21" t="n">
-        <v>0.01498058422176399</v>
+        <v>0.5272142884576241</v>
       </c>
       <c r="P21" t="n">
-        <v>146.9707644240213</v>
+        <v>28.72735599237364</v>
       </c>
       <c r="Q21" t="n">
-        <v>226.1976930404543</v>
+        <v>44.57274171566024</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_4</t>
+          <t>model_6_5_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9996522078040857</v>
+        <v>0.5692387035740197</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7171113838424945</v>
+        <v>0.2355707868591003</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9985142706773156</v>
+        <v>-2.163366163360928</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9997146321814349</v>
+        <v>-16.99369045119845</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9990261155374591</v>
+        <v>-0.7920686400455674</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0002064644713353352</v>
+        <v>0.2557185134775685</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1679349027030201</v>
+        <v>0.4537982025430372</v>
       </c>
       <c r="I22" t="n">
-        <v>0.001129790115306845</v>
+        <v>0.5733796306930626</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0001606128295300284</v>
+        <v>0.152569633957454</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0006452014724184367</v>
+        <v>0.3629746323252583</v>
       </c>
       <c r="L22" t="n">
-        <v>0.004152944209694312</v>
+        <v>0.2823828768330753</v>
       </c>
       <c r="M22" t="n">
-        <v>0.01436887160967538</v>
+        <v>0.5056861808251918</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000203585675657</v>
+        <v>0.06015717143422494</v>
       </c>
       <c r="O22" t="n">
-        <v>0.01498058422176399</v>
+        <v>0.5272142884576241</v>
       </c>
       <c r="P22" t="n">
-        <v>146.9707644240213</v>
+        <v>28.72735599237364</v>
       </c>
       <c r="Q22" t="n">
-        <v>226.1976930404543</v>
+        <v>44.57274171566024</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_3</t>
+          <t>model_6_5_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9996522078040857</v>
+        <v>0.5692387035740197</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7171113838424945</v>
+        <v>0.2355707868591003</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9985142706773156</v>
+        <v>-2.163366163360928</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9997146321814349</v>
+        <v>-16.99369045119845</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9990261155374591</v>
+        <v>-0.7920686400455674</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0002064644713353352</v>
+        <v>0.2557185134775685</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1679349027030201</v>
+        <v>0.4537982025430372</v>
       </c>
       <c r="I23" t="n">
-        <v>0.001129790115306845</v>
+        <v>0.5733796306930626</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0001606128295300284</v>
+        <v>0.152569633957454</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0006452014724184367</v>
+        <v>0.3629746323252583</v>
       </c>
       <c r="L23" t="n">
-        <v>0.004152944209694312</v>
+        <v>0.2823828768330753</v>
       </c>
       <c r="M23" t="n">
-        <v>0.01436887160967538</v>
+        <v>0.5056861808251918</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000203585675657</v>
+        <v>0.06015717143422494</v>
       </c>
       <c r="O23" t="n">
-        <v>0.01498058422176399</v>
+        <v>0.5272142884576241</v>
       </c>
       <c r="P23" t="n">
-        <v>146.9707644240213</v>
+        <v>28.72735599237364</v>
       </c>
       <c r="Q23" t="n">
-        <v>226.1976930404543</v>
+        <v>44.57274171566024</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_23</t>
+          <t>model_6_5_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9996522078040857</v>
+        <v>0.5692387035740197</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7171113838424945</v>
+        <v>0.2355707868591003</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9985142706773156</v>
+        <v>-2.163366163360928</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9997146321814349</v>
+        <v>-16.99369045119845</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9990261155374591</v>
+        <v>-0.7920686400455674</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0002064644713353352</v>
+        <v>0.2557185134775685</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1679349027030201</v>
+        <v>0.4537982025430372</v>
       </c>
       <c r="I24" t="n">
-        <v>0.001129790115306845</v>
+        <v>0.5733796306930626</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0001606128295300284</v>
+        <v>0.152569633957454</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0006452014724184367</v>
+        <v>0.3629746323252583</v>
       </c>
       <c r="L24" t="n">
-        <v>0.004152944209694312</v>
+        <v>0.2823828768330753</v>
       </c>
       <c r="M24" t="n">
-        <v>0.01436887160967538</v>
+        <v>0.5056861808251918</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000203585675657</v>
+        <v>0.06015717143422494</v>
       </c>
       <c r="O24" t="n">
-        <v>0.01498058422176399</v>
+        <v>0.5272142884576241</v>
       </c>
       <c r="P24" t="n">
-        <v>146.9707644240213</v>
+        <v>28.72735599237364</v>
       </c>
       <c r="Q24" t="n">
-        <v>226.1976930404543</v>
+        <v>44.57274171566024</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_1</t>
+          <t>model_6_5_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9996522175149166</v>
+        <v>0.5692387035740197</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7171112478661461</v>
+        <v>0.2355707868591003</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9985143057649377</v>
+        <v>-2.163366163360928</v>
       </c>
       <c r="E25" t="n">
-        <v>0.999714648791812</v>
+        <v>-16.99369045119845</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9990261442727412</v>
+        <v>-0.7920686400455674</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0002064587065666114</v>
+        <v>0.2557185134775685</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1679349834244543</v>
+        <v>0.4537982025430372</v>
       </c>
       <c r="I25" t="n">
-        <v>0.001129763433697972</v>
+        <v>0.5733796306930626</v>
       </c>
       <c r="J25" t="n">
-        <v>0.000160603480754473</v>
+        <v>0.152569633957454</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0006451824352051113</v>
+        <v>0.3629746323252583</v>
       </c>
       <c r="L25" t="n">
-        <v>0.004152925797900966</v>
+        <v>0.2823828768330753</v>
       </c>
       <c r="M25" t="n">
-        <v>0.01436867100906035</v>
+        <v>0.5056861808251918</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000203579991268</v>
+        <v>0.06015717143422494</v>
       </c>
       <c r="O25" t="n">
-        <v>0.01498037508116548</v>
+        <v>0.5272142884576241</v>
       </c>
       <c r="P25" t="n">
-        <v>146.9708202675199</v>
+        <v>28.72735599237364</v>
       </c>
       <c r="Q25" t="n">
-        <v>226.1977488839529</v>
+        <v>44.57274171566024</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_0</t>
+          <t>model_6_5_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9994675701239188</v>
+        <v>0.5692387035740197</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7114044453023715</v>
+        <v>0.2355707868591003</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9989670211470576</v>
+        <v>-2.163366163360928</v>
       </c>
       <c r="E26" t="n">
-        <v>0.999991892821311</v>
+        <v>-16.99369045119845</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9994037243402121</v>
+        <v>-0.7920686400455674</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0003160733742148224</v>
+        <v>0.2557185134775685</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1713227879473456</v>
+        <v>0.4537982025430372</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0007855060000207063</v>
+        <v>0.5733796306930626</v>
       </c>
       <c r="J26" t="n">
-        <v>4.562942364379287e-06</v>
+        <v>0.152569633957454</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0003950344711925428</v>
+        <v>0.3629746323252583</v>
       </c>
       <c r="L26" t="n">
-        <v>0.004994505424750857</v>
+        <v>0.2823828768330753</v>
       </c>
       <c r="M26" t="n">
-        <v>0.01777845252587588</v>
+        <v>0.5056861808251918</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000311666268926</v>
+        <v>0.06015717143422494</v>
       </c>
       <c r="O26" t="n">
-        <v>0.01853531805637265</v>
+        <v>0.5272142884576241</v>
       </c>
       <c r="P26" t="n">
-        <v>146.1190723488971</v>
+        <v>28.72735599237364</v>
       </c>
       <c r="Q26" t="n">
-        <v>225.3460009653301</v>
+        <v>44.57274171566024</v>
       </c>
     </row>
   </sheetData>
